--- a/results/single_gene_mutations_affected_proteins_all_mut.xlsx
+++ b/results/single_gene_mutations_affected_proteins_all_mut.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3920" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="346">
   <si>
     <t>Protein</t>
   </si>
@@ -1073,7 +1073,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="113">
     <border>
       <left/>
       <right/>
@@ -1161,11 +1161,43 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1247,6 +1279,38 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,51 +1334,51 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="105" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="107" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="111" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="105" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>-1</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="107" t="s">
         <v>324</v>
       </c>
       <c r="E3">
         <v>-1</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="109" t="s">
         <v>334</v>
       </c>
       <c r="H3">
         <v>0.089999999999999997</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="111" t="s">
         <v>262</v>
       </c>
       <c r="K3">
@@ -1322,25 +1386,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="105" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>-1</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="107" t="s">
         <v>187</v>
       </c>
       <c r="E4">
         <v>-1</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="109" t="s">
         <v>335</v>
       </c>
       <c r="H4">
         <v>0.089999999999999997</v>
       </c>
-      <c r="J4" s="79" t="s">
+      <c r="J4" s="111" t="s">
         <v>343</v>
       </c>
       <c r="K4">
@@ -1348,25 +1412,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="105" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>-1</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="107" t="s">
         <v>234</v>
       </c>
       <c r="E5">
         <v>-0.98999999999999999</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="109" t="s">
         <v>336</v>
       </c>
       <c r="H5">
         <v>0.089999999999999997</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="111" t="s">
         <v>344</v>
       </c>
       <c r="K5">
@@ -1374,25 +1438,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="105" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>-1</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="107" t="s">
         <v>232</v>
       </c>
       <c r="E6">
         <v>-0.96999999999999997</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="109" t="s">
         <v>337</v>
       </c>
       <c r="H6">
         <v>0.089999999999999997</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="111" t="s">
         <v>345</v>
       </c>
       <c r="K6">
@@ -1400,25 +1464,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="105" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>-1</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="107" t="s">
         <v>205</v>
       </c>
       <c r="E7">
         <v>-0.88</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="109" t="s">
         <v>338</v>
       </c>
       <c r="H7">
         <v>0.089999999999999997</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="111" t="s">
         <v>245</v>
       </c>
       <c r="K7">
@@ -1426,25 +1490,25 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="105" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>-1</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="107" t="s">
         <v>204</v>
       </c>
       <c r="E8">
         <v>-0.87</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="109" t="s">
         <v>339</v>
       </c>
       <c r="H8">
         <v>0.089999999999999997</v>
       </c>
-      <c r="J8" s="79" t="s">
+      <c r="J8" s="111" t="s">
         <v>156</v>
       </c>
       <c r="K8">
@@ -1452,19 +1516,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="105" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>-1</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="107" t="s">
         <v>202</v>
       </c>
       <c r="E9">
         <v>-0.76000000000000001</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="109" t="s">
         <v>340</v>
       </c>
       <c r="H9">
@@ -1472,19 +1536,19 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="105" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>-1</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="107" t="s">
         <v>189</v>
       </c>
       <c r="E10">
         <v>-0.51000000000000001</v>
       </c>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="109" t="s">
         <v>341</v>
       </c>
       <c r="H10">
@@ -1492,19 +1556,19 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="105" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>-1</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="107" t="s">
         <v>191</v>
       </c>
       <c r="E11">
         <v>-0.51000000000000001</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="109" t="s">
         <v>326</v>
       </c>
       <c r="H11">
@@ -1512,19 +1576,19 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="105" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>-1</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="107" t="s">
         <v>190</v>
       </c>
       <c r="E12">
         <v>-0.51000000000000001</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="109" t="s">
         <v>191</v>
       </c>
       <c r="H12">
@@ -1532,19 +1596,19 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="105" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>-0.98999999999999999</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="107" t="s">
         <v>325</v>
       </c>
       <c r="E13">
         <v>-0.51000000000000001</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="109" t="s">
         <v>190</v>
       </c>
       <c r="H13">
@@ -1552,19 +1616,19 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="105" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>-0.97999999999999998</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="107" t="s">
         <v>326</v>
       </c>
       <c r="E14">
         <v>-0.5</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="109" t="s">
         <v>325</v>
       </c>
       <c r="H14">
@@ -1572,19 +1636,19 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="105" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>-0.97999999999999998</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="107" t="s">
         <v>327</v>
       </c>
       <c r="E15">
         <v>-0.47999999999999998</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="109" t="s">
         <v>161</v>
       </c>
       <c r="H15">
@@ -1592,19 +1656,19 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="105" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>-0.97999999999999998</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="107" t="s">
         <v>328</v>
       </c>
       <c r="E16">
         <v>0.040000000000000001</v>
       </c>
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="109" t="s">
         <v>85</v>
       </c>
       <c r="H16">
@@ -1612,19 +1676,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="105" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>-0.97999999999999998</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="107" t="s">
         <v>329</v>
       </c>
       <c r="E17">
         <v>0.040000000000000001</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="109" t="s">
         <v>189</v>
       </c>
       <c r="H17">
@@ -1632,19 +1696,19 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="105" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>-0.97999999999999998</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="107" t="s">
         <v>330</v>
       </c>
       <c r="E18">
         <v>0.050000000000000003</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="109" t="s">
         <v>205</v>
       </c>
       <c r="H18">
@@ -1652,19 +1716,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="105" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>-0.97999999999999998</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="107" t="s">
         <v>331</v>
       </c>
       <c r="E19">
         <v>0.050000000000000003</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="109" t="s">
         <v>165</v>
       </c>
       <c r="H19">
@@ -1672,19 +1736,19 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="105" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>-0.96999999999999997</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="107" t="s">
         <v>332</v>
       </c>
       <c r="E20">
         <v>0.050000000000000003</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="109" t="s">
         <v>86</v>
       </c>
       <c r="H20">
@@ -1692,19 +1756,19 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="105" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="107" t="s">
         <v>89</v>
       </c>
       <c r="E21">
         <v>0.32000000000000001</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="109" t="s">
         <v>342</v>
       </c>
       <c r="H21">
@@ -1712,13 +1776,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="105" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="107" t="s">
         <v>167</v>
       </c>
       <c r="E22">
@@ -1726,13 +1790,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="105" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="107" t="s">
         <v>193</v>
       </c>
       <c r="E23">
@@ -1740,13 +1804,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="105" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="107" t="s">
         <v>64</v>
       </c>
       <c r="E24">
@@ -1754,13 +1818,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="105" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="107" t="s">
         <v>240</v>
       </c>
       <c r="E25">
@@ -1768,13 +1832,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="105" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="107" t="s">
         <v>233</v>
       </c>
       <c r="E26">
@@ -1782,13 +1846,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="105" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="107" t="s">
         <v>235</v>
       </c>
       <c r="E27">
@@ -1796,13 +1860,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="105" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="107" t="s">
         <v>211</v>
       </c>
       <c r="E28">
@@ -1810,13 +1874,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="105" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="107" t="s">
         <v>226</v>
       </c>
       <c r="E29">
@@ -1824,13 +1888,13 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="105" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="107" t="s">
         <v>220</v>
       </c>
       <c r="E30">
@@ -1838,13 +1902,13 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="105" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="107" t="s">
         <v>153</v>
       </c>
       <c r="E31">
@@ -1852,13 +1916,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="105" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="107" t="s">
         <v>192</v>
       </c>
       <c r="E32">
@@ -1866,13 +1930,13 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="105" t="s">
         <v>31</v>
       </c>
       <c r="B33">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="107" t="s">
         <v>86</v>
       </c>
       <c r="E33">
@@ -1880,13 +1944,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="105" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="107" t="s">
         <v>165</v>
       </c>
       <c r="E34">
@@ -1894,13 +1958,13 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="105" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="107" t="s">
         <v>85</v>
       </c>
       <c r="E35">
@@ -1908,13 +1972,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="105" t="s">
         <v>34</v>
       </c>
       <c r="B36">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="107" t="s">
         <v>161</v>
       </c>
       <c r="E36">
@@ -1922,13 +1986,13 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="105" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>-0.95999999999999996</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="107" t="s">
         <v>84</v>
       </c>
       <c r="E37">
@@ -1936,13 +2000,13 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="105" t="s">
         <v>36</v>
       </c>
       <c r="B38">
         <v>-0.94999999999999996</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="107" t="s">
         <v>159</v>
       </c>
       <c r="E38">
@@ -1950,13 +2014,13 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="105" t="s">
         <v>37</v>
       </c>
       <c r="B39">
         <v>-0.94999999999999996</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="107" t="s">
         <v>333</v>
       </c>
       <c r="E39">
@@ -1964,7 +2028,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="105" t="s">
         <v>38</v>
       </c>
       <c r="B40">
@@ -1972,7 +2036,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="105" t="s">
         <v>39</v>
       </c>
       <c r="B41">
@@ -1980,7 +2044,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="105" t="s">
         <v>40</v>
       </c>
       <c r="B42">
@@ -1988,7 +2052,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="105" t="s">
         <v>41</v>
       </c>
       <c r="B43">
@@ -1996,7 +2060,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="105" t="s">
         <v>42</v>
       </c>
       <c r="B44">
@@ -2004,7 +2068,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="105" t="s">
         <v>43</v>
       </c>
       <c r="B45">
@@ -2012,7 +2076,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="105" t="s">
         <v>44</v>
       </c>
       <c r="B46">
@@ -2020,7 +2084,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="105" t="s">
         <v>45</v>
       </c>
       <c r="B47">
@@ -2028,7 +2092,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="105" t="s">
         <v>46</v>
       </c>
       <c r="B48">
@@ -2036,7 +2100,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="105" t="s">
         <v>47</v>
       </c>
       <c r="B49">
@@ -2044,7 +2108,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="73" t="s">
+      <c r="A50" s="105" t="s">
         <v>48</v>
       </c>
       <c r="B50">
@@ -2052,7 +2116,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="105" t="s">
         <v>49</v>
       </c>
       <c r="B51">
@@ -2060,7 +2124,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="105" t="s">
         <v>50</v>
       </c>
       <c r="B52">
@@ -2068,7 +2132,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="105" t="s">
         <v>51</v>
       </c>
       <c r="B53">
@@ -2076,7 +2140,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="105" t="s">
         <v>52</v>
       </c>
       <c r="B54">
@@ -2084,7 +2148,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="105" t="s">
         <v>53</v>
       </c>
       <c r="B55">
@@ -2092,7 +2156,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="105" t="s">
         <v>54</v>
       </c>
       <c r="B56">
@@ -2100,7 +2164,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="105" t="s">
         <v>55</v>
       </c>
       <c r="B57">
@@ -2108,7 +2172,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="73" t="s">
+      <c r="A58" s="105" t="s">
         <v>56</v>
       </c>
       <c r="B58">
@@ -2116,7 +2180,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="105" t="s">
         <v>57</v>
       </c>
       <c r="B59">
@@ -2124,7 +2188,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="105" t="s">
         <v>58</v>
       </c>
       <c r="B60">
@@ -2132,7 +2196,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="73" t="s">
+      <c r="A61" s="105" t="s">
         <v>59</v>
       </c>
       <c r="B61">
@@ -2140,7 +2204,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="105" t="s">
         <v>60</v>
       </c>
       <c r="B62">
@@ -2148,7 +2212,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="73" t="s">
+      <c r="A63" s="105" t="s">
         <v>61</v>
       </c>
       <c r="B63">
@@ -2156,7 +2220,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="105" t="s">
         <v>62</v>
       </c>
       <c r="B64">
@@ -2164,7 +2228,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="105" t="s">
         <v>63</v>
       </c>
       <c r="B65">
@@ -2172,7 +2236,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="73" t="s">
+      <c r="A66" s="105" t="s">
         <v>64</v>
       </c>
       <c r="B66">
@@ -2180,7 +2244,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="105" t="s">
         <v>65</v>
       </c>
       <c r="B67">
@@ -2188,7 +2252,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="105" t="s">
         <v>66</v>
       </c>
       <c r="B68">
@@ -2196,7 +2260,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="105" t="s">
         <v>67</v>
       </c>
       <c r="B69">
@@ -2204,7 +2268,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="105" t="s">
         <v>68</v>
       </c>
       <c r="B70">
@@ -2212,7 +2276,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="105" t="s">
         <v>69</v>
       </c>
       <c r="B71">
@@ -2220,7 +2284,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="105" t="s">
         <v>70</v>
       </c>
       <c r="B72">
@@ -2228,7 +2292,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="105" t="s">
         <v>71</v>
       </c>
       <c r="B73">
@@ -2236,7 +2300,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="105" t="s">
         <v>72</v>
       </c>
       <c r="B74">
@@ -2244,7 +2308,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="105" t="s">
         <v>73</v>
       </c>
       <c r="B75">
@@ -2252,7 +2316,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="105" t="s">
         <v>74</v>
       </c>
       <c r="B76">
@@ -2260,7 +2324,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="105" t="s">
         <v>75</v>
       </c>
       <c r="B77">
@@ -2268,7 +2332,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="73" t="s">
+      <c r="A78" s="105" t="s">
         <v>76</v>
       </c>
       <c r="B78">
@@ -2276,7 +2340,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="73" t="s">
+      <c r="A79" s="105" t="s">
         <v>77</v>
       </c>
       <c r="B79">
@@ -2284,7 +2348,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="105" t="s">
         <v>78</v>
       </c>
       <c r="B80">
@@ -2292,7 +2356,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="73" t="s">
+      <c r="A81" s="105" t="s">
         <v>79</v>
       </c>
       <c r="B81">
@@ -2300,7 +2364,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="73" t="s">
+      <c r="A82" s="105" t="s">
         <v>80</v>
       </c>
       <c r="B82">
@@ -2308,7 +2372,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="73" t="s">
+      <c r="A83" s="105" t="s">
         <v>81</v>
       </c>
       <c r="B83">
@@ -2316,7 +2380,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="73" t="s">
+      <c r="A84" s="105" t="s">
         <v>82</v>
       </c>
       <c r="B84">
@@ -2324,7 +2388,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="105" t="s">
         <v>83</v>
       </c>
       <c r="B85">
@@ -2332,7 +2396,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="73" t="s">
+      <c r="A86" s="105" t="s">
         <v>84</v>
       </c>
       <c r="B86">
@@ -2340,7 +2404,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="73" t="s">
+      <c r="A87" s="105" t="s">
         <v>85</v>
       </c>
       <c r="B87">
@@ -2348,7 +2412,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="73" t="s">
+      <c r="A88" s="105" t="s">
         <v>86</v>
       </c>
       <c r="B88">
@@ -2356,7 +2420,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="73" t="s">
+      <c r="A89" s="105" t="s">
         <v>87</v>
       </c>
       <c r="B89">
@@ -2364,7 +2428,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="73" t="s">
+      <c r="A90" s="105" t="s">
         <v>88</v>
       </c>
       <c r="B90">
@@ -2372,7 +2436,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="73" t="s">
+      <c r="A91" s="105" t="s">
         <v>89</v>
       </c>
       <c r="B91">
@@ -2380,7 +2444,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="73" t="s">
+      <c r="A92" s="105" t="s">
         <v>90</v>
       </c>
       <c r="B92">
@@ -2388,7 +2452,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="73" t="s">
+      <c r="A93" s="105" t="s">
         <v>91</v>
       </c>
       <c r="B93">
@@ -2396,7 +2460,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="73" t="s">
+      <c r="A94" s="105" t="s">
         <v>92</v>
       </c>
       <c r="B94">
@@ -2404,7 +2468,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="73" t="s">
+      <c r="A95" s="105" t="s">
         <v>93</v>
       </c>
       <c r="B95">
@@ -2412,7 +2476,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="73" t="s">
+      <c r="A96" s="105" t="s">
         <v>94</v>
       </c>
       <c r="B96">
@@ -2420,7 +2484,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="73" t="s">
+      <c r="A97" s="105" t="s">
         <v>95</v>
       </c>
       <c r="B97">
@@ -2428,7 +2492,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="73" t="s">
+      <c r="A98" s="105" t="s">
         <v>96</v>
       </c>
       <c r="B98">
@@ -2436,7 +2500,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="105" t="s">
         <v>97</v>
       </c>
       <c r="B99">
@@ -2444,7 +2508,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="73" t="s">
+      <c r="A100" s="105" t="s">
         <v>98</v>
       </c>
       <c r="B100">
@@ -2452,7 +2516,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="73" t="s">
+      <c r="A101" s="105" t="s">
         <v>99</v>
       </c>
       <c r="B101">
@@ -2460,7 +2524,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="73" t="s">
+      <c r="A102" s="105" t="s">
         <v>100</v>
       </c>
       <c r="B102">
@@ -2468,7 +2532,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="73" t="s">
+      <c r="A103" s="105" t="s">
         <v>101</v>
       </c>
       <c r="B103">
@@ -2476,7 +2540,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="73" t="s">
+      <c r="A104" s="105" t="s">
         <v>102</v>
       </c>
       <c r="B104">
@@ -2484,7 +2548,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="73" t="s">
+      <c r="A105" s="105" t="s">
         <v>103</v>
       </c>
       <c r="B105">
@@ -2492,7 +2556,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="73" t="s">
+      <c r="A106" s="105" t="s">
         <v>104</v>
       </c>
       <c r="B106">
@@ -2500,7 +2564,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="73" t="s">
+      <c r="A107" s="105" t="s">
         <v>105</v>
       </c>
       <c r="B107">
@@ -2508,7 +2572,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="73" t="s">
+      <c r="A108" s="105" t="s">
         <v>106</v>
       </c>
       <c r="B108">
@@ -2516,7 +2580,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="73" t="s">
+      <c r="A109" s="105" t="s">
         <v>107</v>
       </c>
       <c r="B109">
@@ -2524,7 +2588,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="73" t="s">
+      <c r="A110" s="105" t="s">
         <v>108</v>
       </c>
       <c r="B110">
@@ -2532,7 +2596,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="73" t="s">
+      <c r="A111" s="105" t="s">
         <v>109</v>
       </c>
       <c r="B111">
@@ -2540,7 +2604,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="73" t="s">
+      <c r="A112" s="105" t="s">
         <v>110</v>
       </c>
       <c r="B112">
@@ -2548,7 +2612,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="73" t="s">
+      <c r="A113" s="105" t="s">
         <v>111</v>
       </c>
       <c r="B113">
@@ -2556,7 +2620,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="73" t="s">
+      <c r="A114" s="105" t="s">
         <v>112</v>
       </c>
       <c r="B114">
@@ -2564,7 +2628,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="73" t="s">
+      <c r="A115" s="105" t="s">
         <v>113</v>
       </c>
       <c r="B115">
@@ -2572,7 +2636,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="73" t="s">
+      <c r="A116" s="105" t="s">
         <v>114</v>
       </c>
       <c r="B116">
@@ -2580,7 +2644,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="73" t="s">
+      <c r="A117" s="105" t="s">
         <v>115</v>
       </c>
       <c r="B117">
@@ -2588,7 +2652,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="73" t="s">
+      <c r="A118" s="105" t="s">
         <v>116</v>
       </c>
       <c r="B118">
@@ -2596,7 +2660,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="73" t="s">
+      <c r="A119" s="105" t="s">
         <v>117</v>
       </c>
       <c r="B119">
@@ -2604,7 +2668,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="73" t="s">
+      <c r="A120" s="105" t="s">
         <v>118</v>
       </c>
       <c r="B120">
@@ -2612,7 +2676,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="73" t="s">
+      <c r="A121" s="105" t="s">
         <v>119</v>
       </c>
       <c r="B121">
@@ -2620,7 +2684,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="73" t="s">
+      <c r="A122" s="105" t="s">
         <v>120</v>
       </c>
       <c r="B122">
@@ -2628,7 +2692,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="73" t="s">
+      <c r="A123" s="105" t="s">
         <v>121</v>
       </c>
       <c r="B123">
@@ -2636,7 +2700,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="73" t="s">
+      <c r="A124" s="105" t="s">
         <v>122</v>
       </c>
       <c r="B124">
@@ -2644,7 +2708,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="73" t="s">
+      <c r="A125" s="105" t="s">
         <v>123</v>
       </c>
       <c r="B125">
@@ -2652,7 +2716,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="73" t="s">
+      <c r="A126" s="105" t="s">
         <v>124</v>
       </c>
       <c r="B126">
@@ -2660,7 +2724,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="73" t="s">
+      <c r="A127" s="105" t="s">
         <v>125</v>
       </c>
       <c r="B127">
@@ -2668,7 +2732,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="73" t="s">
+      <c r="A128" s="105" t="s">
         <v>126</v>
       </c>
       <c r="B128">
@@ -2676,7 +2740,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="73" t="s">
+      <c r="A129" s="105" t="s">
         <v>127</v>
       </c>
       <c r="B129">
@@ -2684,7 +2748,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="73" t="s">
+      <c r="A130" s="105" t="s">
         <v>128</v>
       </c>
       <c r="B130">
@@ -2692,7 +2756,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="73" t="s">
+      <c r="A131" s="105" t="s">
         <v>129</v>
       </c>
       <c r="B131">
@@ -2700,7 +2764,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="73" t="s">
+      <c r="A132" s="105" t="s">
         <v>130</v>
       </c>
       <c r="B132">
@@ -2708,7 +2772,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="73" t="s">
+      <c r="A133" s="105" t="s">
         <v>131</v>
       </c>
       <c r="B133">
@@ -2716,7 +2780,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="73" t="s">
+      <c r="A134" s="105" t="s">
         <v>132</v>
       </c>
       <c r="B134">
@@ -2724,7 +2788,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="73" t="s">
+      <c r="A135" s="105" t="s">
         <v>133</v>
       </c>
       <c r="B135">
@@ -2732,7 +2796,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="73" t="s">
+      <c r="A136" s="105" t="s">
         <v>134</v>
       </c>
       <c r="B136">
@@ -2740,7 +2804,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="73" t="s">
+      <c r="A137" s="105" t="s">
         <v>135</v>
       </c>
       <c r="B137">
@@ -2748,7 +2812,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="73" t="s">
+      <c r="A138" s="105" t="s">
         <v>136</v>
       </c>
       <c r="B138">
@@ -2756,7 +2820,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="73" t="s">
+      <c r="A139" s="105" t="s">
         <v>137</v>
       </c>
       <c r="B139">
@@ -2764,7 +2828,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="73" t="s">
+      <c r="A140" s="105" t="s">
         <v>138</v>
       </c>
       <c r="B140">
@@ -2772,7 +2836,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="73" t="s">
+      <c r="A141" s="105" t="s">
         <v>139</v>
       </c>
       <c r="B141">
@@ -2780,7 +2844,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="73" t="s">
+      <c r="A142" s="105" t="s">
         <v>140</v>
       </c>
       <c r="B142">
@@ -2788,7 +2852,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="73" t="s">
+      <c r="A143" s="105" t="s">
         <v>141</v>
       </c>
       <c r="B143">
@@ -2796,7 +2860,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="73" t="s">
+      <c r="A144" s="105" t="s">
         <v>142</v>
       </c>
       <c r="B144">
@@ -2804,7 +2868,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="73" t="s">
+      <c r="A145" s="105" t="s">
         <v>143</v>
       </c>
       <c r="B145">
@@ -2812,7 +2876,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="73" t="s">
+      <c r="A146" s="105" t="s">
         <v>144</v>
       </c>
       <c r="B146">
@@ -2820,7 +2884,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="73" t="s">
+      <c r="A147" s="105" t="s">
         <v>145</v>
       </c>
       <c r="B147">
@@ -2828,7 +2892,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="73" t="s">
+      <c r="A148" s="105" t="s">
         <v>146</v>
       </c>
       <c r="B148">
@@ -2836,7 +2900,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="73" t="s">
+      <c r="A149" s="105" t="s">
         <v>147</v>
       </c>
       <c r="B149">
@@ -2844,7 +2908,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="73" t="s">
+      <c r="A150" s="105" t="s">
         <v>148</v>
       </c>
       <c r="B150">
@@ -2852,7 +2916,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="73" t="s">
+      <c r="A151" s="105" t="s">
         <v>149</v>
       </c>
       <c r="B151">
@@ -2860,7 +2924,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="73" t="s">
+      <c r="A152" s="105" t="s">
         <v>150</v>
       </c>
       <c r="B152">
@@ -2868,7 +2932,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="73" t="s">
+      <c r="A153" s="105" t="s">
         <v>151</v>
       </c>
       <c r="B153">
@@ -2876,7 +2940,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="73" t="s">
+      <c r="A154" s="105" t="s">
         <v>152</v>
       </c>
       <c r="B154">
@@ -2884,7 +2948,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="73" t="s">
+      <c r="A155" s="105" t="s">
         <v>153</v>
       </c>
       <c r="B155">
@@ -2892,7 +2956,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="73" t="s">
+      <c r="A156" s="105" t="s">
         <v>154</v>
       </c>
       <c r="B156">
@@ -2900,7 +2964,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="73" t="s">
+      <c r="A157" s="105" t="s">
         <v>155</v>
       </c>
       <c r="B157">
@@ -2908,7 +2972,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="73" t="s">
+      <c r="A158" s="105" t="s">
         <v>156</v>
       </c>
       <c r="B158">
@@ -2916,7 +2980,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="73" t="s">
+      <c r="A159" s="105" t="s">
         <v>157</v>
       </c>
       <c r="B159">
@@ -2924,7 +2988,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="73" t="s">
+      <c r="A160" s="105" t="s">
         <v>158</v>
       </c>
       <c r="B160">
@@ -2932,7 +2996,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="73" t="s">
+      <c r="A161" s="105" t="s">
         <v>159</v>
       </c>
       <c r="B161">
@@ -2940,7 +3004,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="73" t="s">
+      <c r="A162" s="105" t="s">
         <v>160</v>
       </c>
       <c r="B162">
@@ -2948,7 +3012,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="73" t="s">
+      <c r="A163" s="105" t="s">
         <v>161</v>
       </c>
       <c r="B163">
@@ -2956,7 +3020,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="73" t="s">
+      <c r="A164" s="105" t="s">
         <v>162</v>
       </c>
       <c r="B164">
@@ -2964,7 +3028,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="73" t="s">
+      <c r="A165" s="105" t="s">
         <v>163</v>
       </c>
       <c r="B165">
@@ -2972,7 +3036,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="73" t="s">
+      <c r="A166" s="105" t="s">
         <v>164</v>
       </c>
       <c r="B166">
@@ -2980,7 +3044,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="73" t="s">
+      <c r="A167" s="105" t="s">
         <v>165</v>
       </c>
       <c r="B167">
@@ -2988,7 +3052,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="73" t="s">
+      <c r="A168" s="105" t="s">
         <v>166</v>
       </c>
       <c r="B168">
@@ -2996,7 +3060,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="73" t="s">
+      <c r="A169" s="105" t="s">
         <v>167</v>
       </c>
       <c r="B169">
@@ -3004,7 +3068,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="73" t="s">
+      <c r="A170" s="105" t="s">
         <v>168</v>
       </c>
       <c r="B170">
@@ -3012,7 +3076,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="73" t="s">
+      <c r="A171" s="105" t="s">
         <v>169</v>
       </c>
       <c r="B171">
@@ -3020,7 +3084,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="73" t="s">
+      <c r="A172" s="105" t="s">
         <v>170</v>
       </c>
       <c r="B172">
@@ -3028,7 +3092,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="73" t="s">
+      <c r="A173" s="105" t="s">
         <v>171</v>
       </c>
       <c r="B173">
@@ -3036,7 +3100,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="73" t="s">
+      <c r="A174" s="105" t="s">
         <v>172</v>
       </c>
       <c r="B174">
@@ -3044,7 +3108,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="73" t="s">
+      <c r="A175" s="105" t="s">
         <v>173</v>
       </c>
       <c r="B175">
@@ -3052,7 +3116,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="73" t="s">
+      <c r="A176" s="105" t="s">
         <v>174</v>
       </c>
       <c r="B176">
@@ -3060,7 +3124,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="73" t="s">
+      <c r="A177" s="105" t="s">
         <v>175</v>
       </c>
       <c r="B177">
@@ -3068,7 +3132,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="73" t="s">
+      <c r="A178" s="105" t="s">
         <v>176</v>
       </c>
       <c r="B178">
@@ -3076,7 +3140,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="73" t="s">
+      <c r="A179" s="105" t="s">
         <v>177</v>
       </c>
       <c r="B179">
@@ -3084,7 +3148,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="73" t="s">
+      <c r="A180" s="105" t="s">
         <v>178</v>
       </c>
       <c r="B180">
@@ -3092,7 +3156,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="73" t="s">
+      <c r="A181" s="105" t="s">
         <v>179</v>
       </c>
       <c r="B181">
@@ -3100,7 +3164,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="73" t="s">
+      <c r="A182" s="105" t="s">
         <v>180</v>
       </c>
       <c r="B182">
@@ -3108,7 +3172,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="73" t="s">
+      <c r="A183" s="105" t="s">
         <v>181</v>
       </c>
       <c r="B183">
@@ -3116,7 +3180,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="73" t="s">
+      <c r="A184" s="105" t="s">
         <v>182</v>
       </c>
       <c r="B184">
@@ -3124,7 +3188,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="73" t="s">
+      <c r="A185" s="105" t="s">
         <v>183</v>
       </c>
       <c r="B185">
@@ -3132,7 +3196,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="73" t="s">
+      <c r="A186" s="105" t="s">
         <v>184</v>
       </c>
       <c r="B186">
@@ -3140,7 +3204,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="73" t="s">
+      <c r="A187" s="105" t="s">
         <v>185</v>
       </c>
       <c r="B187">
@@ -3148,7 +3212,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="73" t="s">
+      <c r="A188" s="105" t="s">
         <v>186</v>
       </c>
       <c r="B188">
@@ -3156,7 +3220,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="73" t="s">
+      <c r="A189" s="105" t="s">
         <v>187</v>
       </c>
       <c r="B189">
@@ -3164,7 +3228,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="73" t="s">
+      <c r="A190" s="105" t="s">
         <v>188</v>
       </c>
       <c r="B190">
@@ -3172,7 +3236,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="73" t="s">
+      <c r="A191" s="105" t="s">
         <v>189</v>
       </c>
       <c r="B191">
@@ -3180,7 +3244,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="73" t="s">
+      <c r="A192" s="105" t="s">
         <v>190</v>
       </c>
       <c r="B192">
@@ -3188,7 +3252,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="73" t="s">
+      <c r="A193" s="105" t="s">
         <v>191</v>
       </c>
       <c r="B193">
@@ -3196,7 +3260,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="73" t="s">
+      <c r="A194" s="105" t="s">
         <v>192</v>
       </c>
       <c r="B194">
@@ -3204,7 +3268,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="73" t="s">
+      <c r="A195" s="105" t="s">
         <v>193</v>
       </c>
       <c r="B195">
@@ -3212,7 +3276,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="73" t="s">
+      <c r="A196" s="105" t="s">
         <v>194</v>
       </c>
       <c r="B196">
@@ -3220,7 +3284,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="73" t="s">
+      <c r="A197" s="105" t="s">
         <v>195</v>
       </c>
       <c r="B197">
@@ -3228,7 +3292,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="73" t="s">
+      <c r="A198" s="105" t="s">
         <v>196</v>
       </c>
       <c r="B198">
@@ -3236,7 +3300,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="73" t="s">
+      <c r="A199" s="105" t="s">
         <v>197</v>
       </c>
       <c r="B199">
@@ -3244,7 +3308,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="73" t="s">
+      <c r="A200" s="105" t="s">
         <v>198</v>
       </c>
       <c r="B200">
@@ -3252,7 +3316,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="73" t="s">
+      <c r="A201" s="105" t="s">
         <v>199</v>
       </c>
       <c r="B201">
@@ -3260,7 +3324,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="73" t="s">
+      <c r="A202" s="105" t="s">
         <v>200</v>
       </c>
       <c r="B202">
@@ -3268,7 +3332,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="73" t="s">
+      <c r="A203" s="105" t="s">
         <v>201</v>
       </c>
       <c r="B203">
@@ -3276,7 +3340,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="73" t="s">
+      <c r="A204" s="105" t="s">
         <v>202</v>
       </c>
       <c r="B204">
@@ -3284,7 +3348,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="73" t="s">
+      <c r="A205" s="105" t="s">
         <v>203</v>
       </c>
       <c r="B205">
@@ -3292,7 +3356,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="73" t="s">
+      <c r="A206" s="105" t="s">
         <v>204</v>
       </c>
       <c r="B206">
@@ -3300,7 +3364,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="73" t="s">
+      <c r="A207" s="105" t="s">
         <v>205</v>
       </c>
       <c r="B207">
@@ -3308,7 +3372,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="73" t="s">
+      <c r="A208" s="105" t="s">
         <v>206</v>
       </c>
       <c r="B208">
@@ -3316,7 +3380,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="73" t="s">
+      <c r="A209" s="105" t="s">
         <v>207</v>
       </c>
       <c r="B209">
@@ -3324,7 +3388,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="73" t="s">
+      <c r="A210" s="105" t="s">
         <v>208</v>
       </c>
       <c r="B210">
@@ -3332,7 +3396,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="73" t="s">
+      <c r="A211" s="105" t="s">
         <v>209</v>
       </c>
       <c r="B211">
@@ -3340,7 +3404,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="73" t="s">
+      <c r="A212" s="105" t="s">
         <v>210</v>
       </c>
       <c r="B212">
@@ -3348,7 +3412,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="73" t="s">
+      <c r="A213" s="105" t="s">
         <v>211</v>
       </c>
       <c r="B213">
@@ -3356,7 +3420,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="73" t="s">
+      <c r="A214" s="105" t="s">
         <v>212</v>
       </c>
       <c r="B214">
@@ -3364,7 +3428,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="73" t="s">
+      <c r="A215" s="105" t="s">
         <v>213</v>
       </c>
       <c r="B215">
@@ -3372,7 +3436,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="73" t="s">
+      <c r="A216" s="105" t="s">
         <v>214</v>
       </c>
       <c r="B216">
@@ -3380,7 +3444,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="73" t="s">
+      <c r="A217" s="105" t="s">
         <v>215</v>
       </c>
       <c r="B217">
@@ -3388,7 +3452,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="73" t="s">
+      <c r="A218" s="105" t="s">
         <v>216</v>
       </c>
       <c r="B218">
@@ -3396,7 +3460,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="73" t="s">
+      <c r="A219" s="105" t="s">
         <v>217</v>
       </c>
       <c r="B219">
@@ -3404,7 +3468,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="73" t="s">
+      <c r="A220" s="105" t="s">
         <v>218</v>
       </c>
       <c r="B220">
@@ -3412,7 +3476,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="73" t="s">
+      <c r="A221" s="105" t="s">
         <v>219</v>
       </c>
       <c r="B221">
@@ -3420,7 +3484,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="73" t="s">
+      <c r="A222" s="105" t="s">
         <v>220</v>
       </c>
       <c r="B222">
@@ -3428,7 +3492,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="73" t="s">
+      <c r="A223" s="105" t="s">
         <v>221</v>
       </c>
       <c r="B223">
@@ -3436,7 +3500,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="73" t="s">
+      <c r="A224" s="105" t="s">
         <v>222</v>
       </c>
       <c r="B224">
@@ -3444,7 +3508,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="73" t="s">
+      <c r="A225" s="105" t="s">
         <v>223</v>
       </c>
       <c r="B225">
@@ -3452,7 +3516,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="73" t="s">
+      <c r="A226" s="105" t="s">
         <v>224</v>
       </c>
       <c r="B226">
@@ -3460,7 +3524,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="73" t="s">
+      <c r="A227" s="105" t="s">
         <v>225</v>
       </c>
       <c r="B227">
@@ -3468,7 +3532,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="73" t="s">
+      <c r="A228" s="105" t="s">
         <v>226</v>
       </c>
       <c r="B228">
@@ -3476,7 +3540,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="73" t="s">
+      <c r="A229" s="105" t="s">
         <v>227</v>
       </c>
       <c r="B229">
@@ -3484,7 +3548,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="73" t="s">
+      <c r="A230" s="105" t="s">
         <v>228</v>
       </c>
       <c r="B230">
@@ -3492,7 +3556,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="73" t="s">
+      <c r="A231" s="105" t="s">
         <v>229</v>
       </c>
       <c r="B231">
@@ -3500,7 +3564,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="73" t="s">
+      <c r="A232" s="105" t="s">
         <v>230</v>
       </c>
       <c r="B232">
@@ -3508,7 +3572,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="73" t="s">
+      <c r="A233" s="105" t="s">
         <v>231</v>
       </c>
       <c r="B233">
@@ -3516,7 +3580,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="73" t="s">
+      <c r="A234" s="105" t="s">
         <v>232</v>
       </c>
       <c r="B234">
@@ -3524,7 +3588,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="73" t="s">
+      <c r="A235" s="105" t="s">
         <v>233</v>
       </c>
       <c r="B235">
@@ -3532,7 +3596,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="73" t="s">
+      <c r="A236" s="105" t="s">
         <v>234</v>
       </c>
       <c r="B236">
@@ -3540,7 +3604,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="73" t="s">
+      <c r="A237" s="105" t="s">
         <v>235</v>
       </c>
       <c r="B237">
@@ -3548,7 +3612,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="73" t="s">
+      <c r="A238" s="105" t="s">
         <v>236</v>
       </c>
       <c r="B238">
@@ -3556,7 +3620,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="73" t="s">
+      <c r="A239" s="105" t="s">
         <v>237</v>
       </c>
       <c r="B239">
@@ -3564,7 +3628,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="73" t="s">
+      <c r="A240" s="105" t="s">
         <v>238</v>
       </c>
       <c r="B240">
@@ -3572,7 +3636,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="73" t="s">
+      <c r="A241" s="105" t="s">
         <v>239</v>
       </c>
       <c r="B241">
@@ -3580,7 +3644,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="73" t="s">
+      <c r="A242" s="105" t="s">
         <v>240</v>
       </c>
       <c r="B242">
@@ -3588,7 +3652,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="73" t="s">
+      <c r="A243" s="105" t="s">
         <v>241</v>
       </c>
       <c r="B243">
@@ -3596,7 +3660,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="73" t="s">
+      <c r="A244" s="105" t="s">
         <v>242</v>
       </c>
       <c r="B244">
@@ -3604,7 +3668,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="73" t="s">
+      <c r="A245" s="105" t="s">
         <v>243</v>
       </c>
       <c r="B245">
@@ -3612,7 +3676,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="73" t="s">
+      <c r="A246" s="105" t="s">
         <v>244</v>
       </c>
       <c r="B246">
@@ -3620,7 +3684,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="73" t="s">
+      <c r="A247" s="105" t="s">
         <v>245</v>
       </c>
       <c r="B247">
@@ -3628,7 +3692,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="73" t="s">
+      <c r="A248" s="105" t="s">
         <v>246</v>
       </c>
       <c r="B248">
@@ -3636,7 +3700,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="73" t="s">
+      <c r="A249" s="105" t="s">
         <v>247</v>
       </c>
       <c r="B249">
@@ -3644,7 +3708,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="73" t="s">
+      <c r="A250" s="105" t="s">
         <v>248</v>
       </c>
       <c r="B250">
@@ -3652,7 +3716,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="73" t="s">
+      <c r="A251" s="105" t="s">
         <v>249</v>
       </c>
       <c r="B251">
@@ -3660,7 +3724,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="73" t="s">
+      <c r="A252" s="105" t="s">
         <v>250</v>
       </c>
       <c r="B252">
@@ -3668,7 +3732,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="73" t="s">
+      <c r="A253" s="105" t="s">
         <v>251</v>
       </c>
       <c r="B253">
@@ -3676,7 +3740,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="73" t="s">
+      <c r="A254" s="105" t="s">
         <v>252</v>
       </c>
       <c r="B254">
@@ -3684,7 +3748,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="73" t="s">
+      <c r="A255" s="105" t="s">
         <v>253</v>
       </c>
       <c r="B255">
@@ -3692,7 +3756,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="73" t="s">
+      <c r="A256" s="105" t="s">
         <v>254</v>
       </c>
       <c r="B256">
@@ -3700,7 +3764,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="73" t="s">
+      <c r="A257" s="105" t="s">
         <v>255</v>
       </c>
       <c r="B257">
@@ -3708,7 +3772,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="73" t="s">
+      <c r="A258" s="105" t="s">
         <v>256</v>
       </c>
       <c r="B258">
@@ -3716,7 +3780,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="73" t="s">
+      <c r="A259" s="105" t="s">
         <v>257</v>
       </c>
       <c r="B259">
@@ -3724,7 +3788,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="73" t="s">
+      <c r="A260" s="105" t="s">
         <v>258</v>
       </c>
       <c r="B260">
@@ -3732,7 +3796,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="73" t="s">
+      <c r="A261" s="105" t="s">
         <v>259</v>
       </c>
       <c r="B261">
@@ -3740,7 +3804,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="73" t="s">
+      <c r="A262" s="105" t="s">
         <v>260</v>
       </c>
       <c r="B262">
@@ -3748,7 +3812,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="73" t="s">
+      <c r="A263" s="105" t="s">
         <v>261</v>
       </c>
       <c r="B263">
@@ -3756,7 +3820,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="73" t="s">
+      <c r="A264" s="105" t="s">
         <v>262</v>
       </c>
       <c r="B264">
@@ -3764,7 +3828,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="73" t="s">
+      <c r="A265" s="105" t="s">
         <v>263</v>
       </c>
       <c r="B265">
@@ -3772,7 +3836,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="73" t="s">
+      <c r="A266" s="105" t="s">
         <v>264</v>
       </c>
       <c r="B266">
@@ -3780,7 +3844,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="73" t="s">
+      <c r="A267" s="105" t="s">
         <v>265</v>
       </c>
       <c r="B267">
@@ -3788,7 +3852,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="73" t="s">
+      <c r="A268" s="105" t="s">
         <v>266</v>
       </c>
       <c r="B268">
@@ -3796,7 +3860,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="73" t="s">
+      <c r="A269" s="105" t="s">
         <v>267</v>
       </c>
       <c r="B269">
@@ -3804,7 +3868,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="73" t="s">
+      <c r="A270" s="105" t="s">
         <v>268</v>
       </c>
       <c r="B270">
@@ -3812,7 +3876,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="73" t="s">
+      <c r="A271" s="105" t="s">
         <v>269</v>
       </c>
       <c r="B271">
@@ -3820,7 +3884,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="73" t="s">
+      <c r="A272" s="105" t="s">
         <v>270</v>
       </c>
       <c r="B272">
@@ -3828,7 +3892,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="73" t="s">
+      <c r="A273" s="105" t="s">
         <v>271</v>
       </c>
       <c r="B273">
@@ -3836,7 +3900,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="73" t="s">
+      <c r="A274" s="105" t="s">
         <v>272</v>
       </c>
       <c r="B274">
@@ -3844,7 +3908,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="73" t="s">
+      <c r="A275" s="105" t="s">
         <v>273</v>
       </c>
       <c r="B275">
@@ -3852,7 +3916,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="73" t="s">
+      <c r="A276" s="105" t="s">
         <v>274</v>
       </c>
       <c r="B276">
@@ -3860,7 +3924,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="73" t="s">
+      <c r="A277" s="105" t="s">
         <v>275</v>
       </c>
       <c r="B277">
@@ -3868,7 +3932,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="73" t="s">
+      <c r="A278" s="105" t="s">
         <v>276</v>
       </c>
       <c r="B278">
@@ -3876,7 +3940,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="73" t="s">
+      <c r="A279" s="105" t="s">
         <v>277</v>
       </c>
       <c r="B279">
@@ -3884,7 +3948,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="73" t="s">
+      <c r="A280" s="105" t="s">
         <v>278</v>
       </c>
       <c r="B280">
@@ -3892,7 +3956,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="73" t="s">
+      <c r="A281" s="105" t="s">
         <v>279</v>
       </c>
       <c r="B281">
@@ -3900,7 +3964,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="73" t="s">
+      <c r="A282" s="105" t="s">
         <v>280</v>
       </c>
       <c r="B282">
@@ -3908,7 +3972,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="73" t="s">
+      <c r="A283" s="105" t="s">
         <v>281</v>
       </c>
       <c r="B283">
@@ -3916,7 +3980,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="73" t="s">
+      <c r="A284" s="105" t="s">
         <v>282</v>
       </c>
       <c r="B284">
@@ -3924,7 +3988,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="73" t="s">
+      <c r="A285" s="105" t="s">
         <v>283</v>
       </c>
       <c r="B285">
@@ -3932,7 +3996,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="73" t="s">
+      <c r="A286" s="105" t="s">
         <v>284</v>
       </c>
       <c r="B286">
@@ -3940,7 +4004,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="73" t="s">
+      <c r="A287" s="105" t="s">
         <v>285</v>
       </c>
       <c r="B287">
@@ -3948,7 +4012,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="73" t="s">
+      <c r="A288" s="105" t="s">
         <v>286</v>
       </c>
       <c r="B288">
@@ -3956,7 +4020,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="73" t="s">
+      <c r="A289" s="105" t="s">
         <v>287</v>
       </c>
       <c r="B289">
@@ -3964,7 +4028,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="73" t="s">
+      <c r="A290" s="105" t="s">
         <v>288</v>
       </c>
       <c r="B290">
@@ -3972,7 +4036,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="73" t="s">
+      <c r="A291" s="105" t="s">
         <v>289</v>
       </c>
       <c r="B291">
@@ -3980,7 +4044,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="73" t="s">
+      <c r="A292" s="105" t="s">
         <v>290</v>
       </c>
       <c r="B292">
@@ -3988,7 +4052,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="73" t="s">
+      <c r="A293" s="105" t="s">
         <v>291</v>
       </c>
       <c r="B293">
@@ -3996,7 +4060,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="73" t="s">
+      <c r="A294" s="105" t="s">
         <v>292</v>
       </c>
       <c r="B294">
@@ -4004,7 +4068,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="73" t="s">
+      <c r="A295" s="105" t="s">
         <v>293</v>
       </c>
       <c r="B295">
@@ -4012,7 +4076,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="73" t="s">
+      <c r="A296" s="105" t="s">
         <v>294</v>
       </c>
       <c r="B296">
@@ -4020,7 +4084,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="73" t="s">
+      <c r="A297" s="105" t="s">
         <v>295</v>
       </c>
       <c r="B297">
@@ -4028,7 +4092,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="73" t="s">
+      <c r="A298" s="105" t="s">
         <v>296</v>
       </c>
       <c r="B298">
@@ -4036,7 +4100,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="73" t="s">
+      <c r="A299" s="105" t="s">
         <v>297</v>
       </c>
       <c r="B299">
@@ -4044,7 +4108,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="73" t="s">
+      <c r="A300" s="105" t="s">
         <v>298</v>
       </c>
       <c r="B300">
@@ -4052,7 +4116,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="73" t="s">
+      <c r="A301" s="105" t="s">
         <v>299</v>
       </c>
       <c r="B301">
@@ -4060,7 +4124,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="73" t="s">
+      <c r="A302" s="105" t="s">
         <v>300</v>
       </c>
       <c r="B302">
@@ -4068,7 +4132,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="73" t="s">
+      <c r="A303" s="105" t="s">
         <v>301</v>
       </c>
       <c r="B303">
@@ -4076,7 +4140,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="73" t="s">
+      <c r="A304" s="105" t="s">
         <v>302</v>
       </c>
       <c r="B304">
@@ -4084,7 +4148,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="73" t="s">
+      <c r="A305" s="105" t="s">
         <v>303</v>
       </c>
       <c r="B305">
@@ -4092,7 +4156,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="73" t="s">
+      <c r="A306" s="105" t="s">
         <v>304</v>
       </c>
       <c r="B306">
@@ -4100,7 +4164,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="73" t="s">
+      <c r="A307" s="105" t="s">
         <v>305</v>
       </c>
       <c r="B307">
@@ -4108,7 +4172,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="73" t="s">
+      <c r="A308" s="105" t="s">
         <v>306</v>
       </c>
       <c r="B308">
@@ -4116,7 +4180,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="73" t="s">
+      <c r="A309" s="105" t="s">
         <v>307</v>
       </c>
       <c r="B309">
@@ -4124,7 +4188,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="73" t="s">
+      <c r="A310" s="105" t="s">
         <v>308</v>
       </c>
       <c r="B310">
@@ -4132,7 +4196,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="73" t="s">
+      <c r="A311" s="105" t="s">
         <v>309</v>
       </c>
       <c r="B311">
@@ -4140,7 +4204,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="73" t="s">
+      <c r="A312" s="105" t="s">
         <v>310</v>
       </c>
       <c r="B312">
@@ -4148,7 +4212,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="73" t="s">
+      <c r="A313" s="105" t="s">
         <v>311</v>
       </c>
       <c r="B313">
@@ -4156,7 +4220,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="73" t="s">
+      <c r="A314" s="105" t="s">
         <v>312</v>
       </c>
       <c r="B314">
@@ -4164,7 +4228,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="73" t="s">
+      <c r="A315" s="105" t="s">
         <v>313</v>
       </c>
       <c r="B315">
@@ -4172,7 +4236,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="73" t="s">
+      <c r="A316" s="105" t="s">
         <v>314</v>
       </c>
       <c r="B316">
@@ -4180,7 +4244,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="73" t="s">
+      <c r="A317" s="105" t="s">
         <v>315</v>
       </c>
       <c r="B317">
@@ -4188,7 +4252,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="73" t="s">
+      <c r="A318" s="105" t="s">
         <v>316</v>
       </c>
       <c r="B318">
@@ -4196,7 +4260,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="73" t="s">
+      <c r="A319" s="105" t="s">
         <v>317</v>
       </c>
       <c r="B319">
@@ -4204,7 +4268,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="73" t="s">
+      <c r="A320" s="105" t="s">
         <v>318</v>
       </c>
       <c r="B320">
@@ -4212,7 +4276,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="73" t="s">
+      <c r="A321" s="105" t="s">
         <v>319</v>
       </c>
       <c r="B321">
@@ -4220,7 +4284,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="73" t="s">
+      <c r="A322" s="105" t="s">
         <v>320</v>
       </c>
       <c r="B322">
@@ -4228,7 +4292,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="73" t="s">
+      <c r="A323" s="105" t="s">
         <v>321</v>
       </c>
       <c r="B323">
@@ -4236,7 +4300,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="73" t="s">
+      <c r="A324" s="105" t="s">
         <v>322</v>
       </c>
       <c r="B324">
